--- a/result/images/yolov5l/yolov5l.xlsx
+++ b/result/images/yolov5l/yolov5l.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\images\yolov5l\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B1BC521-6339-4E43-89C8-9C996789F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013852FE-243E-4DE2-B806-59843A23248D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{D8D58109-11C4-4176-A919-466D00647909}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D8D58109-11C4-4176-A919-466D00647909}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559B0DB-5004-470E-B65B-E027F6398C9F}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,772 +408,1322 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
-        <v>48.7830999999996</v>
+        <v>45.759600000000198</v>
       </c>
       <c r="B1" s="1">
         <f>AVERAGE(A:A)</f>
-        <v>25.301918954248404</v>
+        <v>24.738612167300349</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>32.111299999999503</v>
+        <v>31.009900000000801</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>33.035200000000401</v>
+        <v>34.032500000000297</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>27.822399999999799</v>
+        <v>30.3940000000011</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>24.530400000000601</v>
+        <v>25.8374999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>24.344700000000302</v>
+        <v>26.373100000000701</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>25.0064999999999</v>
+        <v>29.531799999999102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>26.8675999999992</v>
+        <v>28.081500000000698</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>25.811199999999701</v>
+        <v>30.503599999999398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>31.867200000000601</v>
+        <v>29.7531000000006</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>34.098100000001303</v>
+        <v>27.546600000000801</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>24.214500000001099</v>
+        <v>28.098499999998602</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>30.8296999999999</v>
+        <v>25.773400000000201</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>33.234800000000597</v>
+        <v>27.936600000000301</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>29.143400000000501</v>
+        <v>24.3159000000012</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>25.425099999999599</v>
+        <v>25.833399999999699</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>29.315699999999701</v>
+        <v>28.345899999999698</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>23.612100000001099</v>
+        <v>24.2365000000006</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>22.564899999999</v>
+        <v>29.1686999999996</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>28.216300000000398</v>
+        <v>28.061300000000902</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>27.695200000000099</v>
+        <v>29.367300000000501</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>22.963999999999899</v>
+        <v>37.234599999999602</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>22.673000000001</v>
+        <v>22.436199999999499</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>22.428800000000098</v>
+        <v>22.789999999998699</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>22.635699999998501</v>
+        <v>23.485199999999601</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>22.330099999999501</v>
+        <v>26.3656999999994</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>23.1233999999993</v>
+        <v>27.178999999998499</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>31.031699999999699</v>
+        <v>24.584100000000198</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>22.602300000000799</v>
+        <v>24.1625000000009</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>28.412799999999901</v>
+        <v>22.841300000001301</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>22.155500000000199</v>
+        <v>22.718799999999799</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>23.107200000000098</v>
+        <v>22.156900000000501</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>22.6413999999994</v>
+        <v>21.567199999999701</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>22.384799999999299</v>
+        <v>22.794199999999801</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>22.739799999999999</v>
+        <v>24.9579000000004</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>22.404499999998599</v>
+        <v>22.402000000001301</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>23.091900000000699</v>
+        <v>25.331700000000598</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>22.824099999999302</v>
+        <v>25.056700000000301</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>29.2455</v>
+        <v>24.466900000000098</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>23.3291000000015</v>
+        <v>22.757900000000198</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>22.584300000000098</v>
+        <v>28.902500000000899</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>22.618300000001302</v>
+        <v>23.127899999998601</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>22.794700000000301</v>
+        <v>23.599400000000099</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>22.565799999998799</v>
+        <v>25.5857000000006</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>22.955600000001201</v>
+        <v>22.686399999999502</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>22.443399999998402</v>
+        <v>23.537999999998501</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>22.258100000000098</v>
+        <v>22.482500000000599</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>22.3791000000002</v>
+        <v>22.129100000000701</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>22.599400000000699</v>
+        <v>22.420499999998999</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>22.3248999999992</v>
+        <v>27.328600000000499</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>28.914799999999001</v>
+        <v>22.107699999999301</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>22.5904999999997</v>
+        <v>22.605600000000301</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>22.5596999999986</v>
+        <v>22.508200000000699</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>22.848899999999599</v>
+        <v>25.1063000000009</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>22.480999999999</v>
+        <v>22.499699999999098</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>22.761600000000801</v>
+        <v>22.058000000001201</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>22.829299999999701</v>
+        <v>23.997299999999498</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>28.303499999999801</v>
+        <v>22.3082000000012</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>22.809000000000498</v>
+        <v>27.257300000000399</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>28.624599999998701</v>
+        <v>25.357299999999501</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>23.342300000001199</v>
+        <v>25.9453</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>29.5184000000006</v>
+        <v>23.371299999999</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>40.231699999999599</v>
+        <v>22.7570000000003</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>27.776300000001001</v>
+        <v>23.0116999999996</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>30.409799999999201</v>
+        <v>24.425799999999398</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>27.081800000001198</v>
+        <v>23.447300000000801</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>28.8531000000009</v>
+        <v>24.054400000000602</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>28.941700000000701</v>
+        <v>24.444100000000098</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>28.777700000000898</v>
+        <v>23.1094000000009</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>30.401799999999898</v>
+        <v>24.585499999998799</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>24.302500000001</v>
+        <v>30.1255000000004</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>23.222300000000399</v>
+        <v>24.3506999999993</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>24.0831000000003</v>
+        <v>23.8379999999995</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>27.9364999999991</v>
+        <v>23.1133999999997</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>28.335799999998901</v>
+        <v>27.517800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>23.0168000000006</v>
+        <v>22.608400000001001</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>22.623099999998701</v>
+        <v>26.203399999999899</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>26.4603999999994</v>
+        <v>27.331800000000602</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>28.3404000000011</v>
+        <v>22.368300000000101</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>29.831399999999</v>
+        <v>24.052100000000401</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>22.4260000000011</v>
+        <v>29.606900000000898</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>22.8099999999997</v>
+        <v>24.639399999999799</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>22.159999999999499</v>
+        <v>26.785199999999001</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>22.700499999999099</v>
+        <v>24.767600000000499</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>21.939100000000799</v>
+        <v>23.424600000000201</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>22.986300000001201</v>
+        <v>22.8894999999997</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>22.914999999999299</v>
+        <v>30.139600000000002</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>22.504300000001301</v>
+        <v>24.1883000000004</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>22.969999999999001</v>
+        <v>26.165799999999301</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>22.633100000000098</v>
+        <v>24.1946999999989</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>27.778699999998899</v>
+        <v>23.936400000000098</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>22.365000000000599</v>
+        <v>23.3388000000012</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>22.718799999999799</v>
+        <v>22.884000000001201</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>22.168900000000399</v>
+        <v>21.981799999998898</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>22.640900000000698</v>
+        <v>27.778400000002499</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>23.0142000000004</v>
+        <v>22.160899999999302</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>22.669000000000398</v>
+        <v>21.718200000002199</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>22.211799999999101</v>
+        <v>22.373599999998099</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>22.681400000001499</v>
+        <v>27.691000000000798</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <v>23.089600000000399</v>
+        <v>26.168800000000601</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <v>22.935299999998499</v>
+        <v>24.545799999998501</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>27.322399999999099</v>
+        <v>30.5351999999992</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>22.3993</v>
+        <v>24.281300000001899</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>22.306699999999601</v>
+        <v>28.492399999997499</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>22.026300000000202</v>
+        <v>25.9086999999986</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>22.241000000001002</v>
+        <v>24.746199999999099</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>22.091600000003002</v>
+        <v>22.2118000000008</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>22.530899999999502</v>
+        <v>22.0303000000008</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>22.360400000000102</v>
+        <v>28.9955000000006</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>22.505800000001098</v>
+        <v>26.370799999998599</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>24.399500000001201</v>
+        <v>25.248100000002399</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>22.995599999997999</v>
+        <v>22.910299999999399</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>22.744899999999198</v>
+        <v>23.616299999996901</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <v>22.708000000001501</v>
+        <v>25.706300000003001</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>28.7196999999999</v>
+        <v>24.946100000001</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>23.038700000000699</v>
+        <v>25.516599999999499</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>21.791600000000201</v>
+        <v>22.500600000000698</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>24.327800000001702</v>
+        <v>27.168299999999501</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>22.265199999999599</v>
+        <v>24.998200000002399</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>22.725499999999901</v>
+        <v>26.249199999998702</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>23.387499999998301</v>
+        <v>23.5283000000023</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <v>23.3767</v>
+        <v>23.0449999999997</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>22.846700000002301</v>
+        <v>22.9581000000003</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>22.4695999999973</v>
+        <v>23.9706999999995</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>22.698099999999499</v>
+        <v>24.792699999999002</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>27.219500000000998</v>
+        <v>23.9054999999979</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>22.5820999999974</v>
+        <v>22.104699999999799</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>21.639500000002698</v>
+        <v>24.380999999998199</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>22.555499999999199</v>
+        <v>22.868800000001201</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>22.641300000000001</v>
+        <v>22.515999999999501</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>35.222600000000803</v>
+        <v>22.488500000001402</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>23.2589999999994</v>
+        <v>21.895600000000499</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>26.886799999999699</v>
+        <v>22.211599999998501</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>28.338999999999</v>
+        <v>21.5918999999971</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>39.779200000001602</v>
+        <v>24.608300000000501</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>38.111399999998198</v>
+        <v>41.364099999999098</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>23.630300000000599</v>
+        <v>22.224900000001199</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>23.241500000001</v>
+        <v>22.3717000000007</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>23.333999999998401</v>
+        <v>21.8733000000028</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>29.488799999999301</v>
+        <v>23.200100000000301</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <v>28.1632999999992</v>
+        <v>27.179799999998899</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <v>31.3556000000012</v>
+        <v>23.523600000000702</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <v>23.177800000002598</v>
+        <v>22.845799999998899</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <v>22.321500000000299</v>
+        <v>24.163099999999101</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <v>22.745600000000302</v>
+        <v>22.247199999998902</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <v>27.163500000000301</v>
+        <v>24.5139999999999</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <v>25.656600000001301</v>
+        <v>22.633900000002399</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <v>25.333199999998602</v>
+        <v>23.8864999999997</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <v>27.8618999999977</v>
+        <v>21.905499999999002</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <v>32.810300000001199</v>
+        <v>21.849700000000599</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <v>22.046700000000602</v>
+        <v>26.959000000001499</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <v>22.400999999998501</v>
+        <v>26.567499999998699</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <v>31.2403000000003</v>
+        <v>22.999000000002201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>23.781499999998299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <v>26.6170000000016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>24.0726000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <v>23.531600000001799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>22.085400000001599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
+        <v>23.0625999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
+        <v>24.800400000000099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
+        <v>24.1751000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>30.136500000001099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>29.2058999999973</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>23.775499999999202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>27.080699999998998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
+        <v>23.481900000000099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
+        <v>22.411900000001499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
+        <v>22.177100000000301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
+        <v>22.557500000001301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>23.012099999998899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>24.4165999999985</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>23.8119999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>26.5230999999985</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
+        <v>23.455200000000701</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>28.594300000001699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>22.0295999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>28.0649000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>23.0832999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>23.263899999999801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>22.960999999998599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>22.190000000001898</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>22.7228999999979</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>21.7886999999983</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>26.3936999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>22.629000000002002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>28.211099999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>23.4670999999977</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>22.8475999999986</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>22.151899999997202</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>23.558199999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>24.255700000001202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>24.378600000002098</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>24.930099999998799</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>23.129399999998402</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>25.2194999999986</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
+        <v>26.227800000000901</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="3">
+        <v>26.991699999999899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="3">
+        <v>22.159899999998299</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>22.622399999999399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>23.114299999999499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="3">
+        <v>24.2386000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="3">
+        <v>23.208499999998999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="3">
+        <v>23.859400000002701</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="3">
+        <v>25.373299999998199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="3">
+        <v>27.031400000002002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="3">
+        <v>22.548700000001499</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="3">
+        <v>21.749899999999599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="3">
+        <v>22.968999999999699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="3">
+        <v>22.321399999999102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="3">
+        <v>22.0382000000007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="3">
+        <v>21.562400000000501</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="3">
+        <v>22.060800000001901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="3">
+        <v>22.352699999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="3">
+        <v>22.844700000000199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="3">
+        <v>22.527899999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="3">
+        <v>28.2618999999968</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="3">
+        <v>22.308899999998701</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="3">
+        <v>23.6351999999975</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="3">
+        <v>21.6288999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="3">
+        <v>24.831599999998801</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="3">
+        <v>23.116200000000401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="3">
+        <v>22.950200000000301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="3">
+        <v>25.334299999997199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="3">
+        <v>23.523999999998299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="3">
+        <v>21.4368999999976</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
+        <v>27.5232999999985</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="3">
+        <v>23.611899999998698</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="3">
+        <v>23.224699999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="3">
+        <v>21.9977999999976</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="3">
+        <v>21.957900000000301</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="3">
+        <v>21.7038000000009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="3">
+        <v>24.410599999999501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="3">
+        <v>24.954300000000899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="3">
+        <v>27.294000000001201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="3">
+        <v>21.106899999999399</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="3">
+        <v>27.991299999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="3">
+        <v>21.638500000001599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="3">
+        <v>25.461700000000999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="3">
+        <v>21.1091000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="3">
+        <v>25.831400000001199</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="3">
+        <v>25.831300000000098</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="3">
+        <v>22.816599999998701</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="3">
+        <v>21.745599999999101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="3">
+        <v>22.334499999999402</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="3">
+        <v>23.960899999998698</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="3">
+        <v>26.520600000001298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="3">
+        <v>23.4278000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="3">
+        <v>22.1677000000006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="3">
+        <v>21.7956000000008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="3">
+        <v>32.0370000000025</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="3">
+        <v>26.393199999997499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="3">
+        <v>27.8868000000009</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="3">
+        <v>22.847299999998601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="3">
+        <v>23.188099999998698</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="3">
+        <v>27.350799999997101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="3">
+        <v>25.375199999999101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3">
+        <v>29.4524000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="3">
+        <v>23.877900000002199</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="3">
+        <v>25.839500000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="3">
+        <v>26.960299999998899</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="3">
+        <v>28.171500000002599</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="3">
+        <v>26.368000000001501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="3">
+        <v>28.711600000001098</v>
       </c>
     </row>
   </sheetData>
